--- a/data/trans_orig/P14C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F359B19B-B7CD-4A83-A307-089310874339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C69865-B52A-4C05-8F52-647F24490349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E0941C1-E7FE-4C25-9F00-6A25F0741F5B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89DF7A6C-F8A5-4719-8AE0-D95D7E72B164}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="117">
   <si>
     <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
   </si>
@@ -116,19 +116,31 @@
     <t>45,93%</t>
   </si>
   <si>
+    <t>92,14%</t>
+  </si>
+  <si>
     <t>54,16%</t>
   </si>
   <si>
-    <t>16,53%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
+    <t>7,86%</t>
+  </si>
+  <si>
     <t>45,84%</t>
   </si>
   <si>
-    <t>83,47%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -143,13 +155,13 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>45,85%</t>
+    <t>57,45%</t>
   </si>
   <si>
     <t>57,88%</t>
   </si>
   <si>
-    <t>15,93%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>86,44%</t>
@@ -158,28 +170,28 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>54,15%</t>
+    <t>42,55%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>56,78%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -188,13 +200,13 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>71,96%</t>
+    <t>71,54%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>42,23%</t>
+    <t>42,64%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -203,49 +215,49 @@
     <t>86,75%</t>
   </si>
   <si>
-    <t>31,93%</t>
+    <t>35,8%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>68,07%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -308,55 +320,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -365,13 +377,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8615B4E4-B075-40C1-8FC4-AACB00E0B878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D5F65-D200-4EC2-A3DA-7CF9045E6DA3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1320,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1344,13 +1356,13 @@
         <v>3475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,10 +1377,10 @@
         <v>2941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -1395,13 +1407,13 @@
         <v>2941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1452,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,7 +1520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1520,10 +1532,10 @@
         <v>7209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -1535,13 +1547,13 @@
         <v>4290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1550,13 +1562,13 @@
         <v>11498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,13 +1583,13 @@
         <v>994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1586,13 +1598,13 @@
         <v>1020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1601,13 +1613,13 @@
         <v>2014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1628,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1637,13 +1649,13 @@
         <v>2102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1652,13 +1664,13 @@
         <v>2102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1726,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1726,10 +1738,10 @@
         <v>7695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
@@ -1741,13 +1753,13 @@
         <v>15501</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1756,13 +1768,13 @@
         <v>23195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1789,13 @@
         <v>1175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1792,13 +1804,13 @@
         <v>3402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1807,13 +1819,13 @@
         <v>4578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1846,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1849,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1864,7 +1876,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,7 +1932,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1932,10 +1944,10 @@
         <v>5981</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>
@@ -1947,10 +1959,10 @@
         <v>14645</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>12</v>
@@ -1962,13 +1974,13 @@
         <v>20626</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1995,13 @@
         <v>2000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -1998,13 +2010,13 @@
         <v>2034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2013,13 +2025,13 @@
         <v>4034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,7 +2052,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2055,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2070,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2150,13 @@
         <v>24402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2153,13 +2165,13 @@
         <v>36407</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -2168,13 +2180,13 @@
         <v>60809</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2201,13 @@
         <v>7111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2204,13 +2216,13 @@
         <v>7441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2219,13 +2231,13 @@
         <v>14552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2255,13 +2267,13 @@
         <v>2102</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2270,13 +2282,13 @@
         <v>2102</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2344,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C20-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C69865-B52A-4C05-8F52-647F24490349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C82F6CC-75AB-4793-AC92-53EE4146E365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89DF7A6C-F8A5-4719-8AE0-D95D7E72B164}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7924C073-9848-452A-809E-11AF891F5EF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="117">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hemorroides en 2015 (Tasa respuesta: 1,04%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="111">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hemorroides en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -116,31 +116,19 @@
     <t>45,93%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
     <t>54,16%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
     <t>45,84%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -155,43 +143,43 @@
     <t>87,88%</t>
   </si>
   <si>
-    <t>57,45%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>57,88%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>42,55%</t>
+    <t>55,76%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>56,78%</t>
+    <t>56,7%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>38,43%</t>
+    <t>39,14%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -200,13 +188,13 @@
     <t>28,36%</t>
   </si>
   <si>
-    <t>71,54%</t>
+    <t>71,87%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>42,64%</t>
+    <t>41,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -215,49 +203,43 @@
     <t>86,75%</t>
   </si>
   <si>
-    <t>35,8%</t>
+    <t>32,57%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>64,2%</t>
+    <t>67,43%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -272,43 +254,43 @@
     <t>74,94%</t>
   </si>
   <si>
-    <t>40,04%</t>
+    <t>30,97%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>60,98%</t>
+    <t>62,44%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>59,96%</t>
+    <t>69,03%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>37,56%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -320,55 +302,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>78,5%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -377,13 +359,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>16,1%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -798,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D5F65-D200-4EC2-A3DA-7CF9045E6DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C896A34C-E6B4-4EAD-83C8-DE3A06DFDA5F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1332,7 +1314,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1356,13 +1338,13 @@
         <v>3475</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,10 +1359,10 @@
         <v>2941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -1407,13 +1389,13 @@
         <v>2941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1434,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1464,7 +1446,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,7 +1502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1532,10 +1514,10 @@
         <v>7209</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -1547,13 +1529,13 @@
         <v>4290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1562,13 +1544,13 @@
         <v>11498</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1565,13 @@
         <v>994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1598,13 +1580,13 @@
         <v>1020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1613,13 +1595,13 @@
         <v>2014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,7 +1622,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1649,13 +1631,13 @@
         <v>2102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1664,13 +1646,13 @@
         <v>2102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,7 +1708,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1738,10 +1720,10 @@
         <v>7695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
@@ -1753,13 +1735,13 @@
         <v>15501</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1768,13 +1750,13 @@
         <v>23195</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1771,13 @@
         <v>1175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1804,13 +1786,13 @@
         <v>3402</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1819,13 +1801,13 @@
         <v>4578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,7 +1828,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1861,7 +1843,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1876,7 +1858,7 @@
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,7 +1914,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1944,10 +1926,10 @@
         <v>5981</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>
@@ -1959,10 +1941,10 @@
         <v>14645</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>12</v>
@@ -1974,13 +1956,13 @@
         <v>20626</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1977,13 @@
         <v>2000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2010,13 +1992,13 @@
         <v>2034</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2025,13 +2007,13 @@
         <v>4034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,7 +2034,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2067,7 +2049,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2082,7 +2064,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2132,13 @@
         <v>24402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2165,13 +2147,13 @@
         <v>36407</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -2180,13 +2162,13 @@
         <v>60809</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2183,13 @@
         <v>7111</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2216,13 +2198,13 @@
         <v>7441</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -2231,13 +2213,13 @@
         <v>14552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2267,13 +2249,13 @@
         <v>2102</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2282,13 +2264,13 @@
         <v>2102</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,7 +2326,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
